--- a/Reports/heart/heart_distcorrgan_100_05.xlsx
+++ b/Reports/heart/heart_distcorrgan_100_05.xlsx
@@ -442,57 +442,57 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.0219</v>
+        <v>-0.0617</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0504</v>
+        <v>-0.0617</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9097</v>
+        <v>0.8803</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.8477</v>
+        <v>1.0452</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.1357</v>
+        <v>0.0985</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.8021</v>
+        <v>1.1733</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.0786</v>
+        <v>-0.092</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.8804999999999999</v>
+        <v>0.8532999999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.0975</v>
+        <v>0.0266</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.0004</v>
+        <v>0.0005999999999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.6652</v>
+        <v>0.6674</v>
       </c>
     </row>
     <row r="13">
